--- a/整合結果/EPU匯出結果/2025-06-07/2025-06-07_自由時報_EPU檢查結果.xlsx
+++ b/整合結果/EPU匯出結果/2025-06-07/2025-06-07_自由時報_EPU檢查結果.xlsx
@@ -168,12 +168,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$6:$A$7</f>
+              <f>'Sheet1'!$A$8:$A$9</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$6:$B$7</f>
+              <f>'Sheet1'!$B$8:$B$9</f>
             </numRef>
           </val>
         </ser>
@@ -249,7 +249,7 @@
     <from>
       <col>3</col>
       <colOff>0</colOff>
-      <row>5</row>
+      <row>7</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -559,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,40 +668,104 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-06-07</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-06-07_0909_自由時報_財經_黃金再下跌！「1原因」對金價超不利.txt</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>✔ 是</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>美元、貿易、經濟</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fed、非農就業、降息、聯準會、貿易政策</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>不明、失業</t>
+        </is>
+      </c>
+    </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>統計摘要</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>✔ 符合 EPU</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
+          <t>2025-06-07</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-06-07_1039_自由時報_財經_今年第一季高雄市房貸申請案 鼓山區鑑估值最高.txt</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>台積電、房市、房貸、房價、商業、經濟</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>✘ 不符合 EPU</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
+          <t>統計摘要</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>✔ 符合 EPU</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>✘ 不符合 EPU</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>EPU 比例</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>50.0%</t>
         </is>
